--- a/dataset/lg/vemana.xlsx
+++ b/dataset/lg/vemana.xlsx
@@ -4223,7 +4223,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[('వె', '|'), ('ద', '|'), ('క', '|'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('దొ', '|'), ('ఱ', '|'), ('కు', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('వే', 'U'), ('ద్యుం', 'U'), ('డు', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('వా', 'U'), ('ని', '|'), ('దా', 'U'), ('ను', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('నే', 'U'), ('ర్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ర', '|'), ('వ', '|'), ('రుల్', 'U'), ('గ', '|'), ('ల', '|'), ('రొ', '|'), ('కో', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('వె', '|'), ('ద', '|'), ('క', '|'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('దొ', '|'), ('ఱ', '|'), ('కు', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('వే', 'U'), ('ద్యుం', 'U'), ('డు', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('వా', 'U'), ('ని', '|'), ('దా', 'U'), ('ను', '|'), ('వె', '|'), ('ద', '|'), ('కు', '|'), ('చుం', 'U'), ('డు', '|'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('నే', 'U'), ('ర్చు', '|'), ('న', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ర', '|'), ('వ', '|'), ('రు', 'U'), ('ల్గ', '|'), ('ల', '|'), ('రొ', '|'), ('కో', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('ను', '|'), ('దు', '|'), ('రు', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('పు', '|'), ('ను', '|'), ('నె', '|'), ('ఱు', '|'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('నె', 'U'), ('త్తి', '|'), ('మీ', 'U'), ('ద', '|'), ('త', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('త', 'U'), ('త్వ', '|'), ('మే', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('కా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('ను', '|'), ('దు', '|'), ('రు', '|'), ('క', 'U'), ('ర్ణ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('పు', '|'), ('ను', '|'), ('నె', '|'), ('ఱు', '|'), ('లు', '|'), ('కా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('నె', 'U'), ('త్తి', '|'), ('మీ', 'U'), ('ద', '|'), ('త', 'U'), ('న్ను', '|'), ('గా', 'U'), ('న', '|'), ('లే', 'U'), ('డు', '|'), ('త', 'U'), ('త్వ', '|'), ('మే', 'U'), ('మె', '|'), ('ఱు', '|'), ('గు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ల', '|'), ('ప', '|'), ('గ', '|'), ('మూ', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('దె', 'U'), ('ల్ప', '|'), ('గ', '|'), ('పా', 'U'), ('టు', '|'), ('గా', 'U'), ('దు', '|'), ('లో', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('ని', '|'), ('నా', 'U'), ('త్మ', '|'), ('గు', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('మున్', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('నా', 'U'), ('త్మ', '|'), ('వి', '|'), ('ధా', 'U'), ('న', '|'), ('దృ', 'U'), ('శ్య', '|'), ('మీ', 'U'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('శ', 'U'), ('క్తి', '|'), ('రూ', 'U'), ('పు', '|'), ('ని', '|'), ('ను', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('చే', 'U'), ('సె', '|'), ('క', 'U'), ('ల్ప', '|'), ('ము', '|')]</t>
+          <t>[('త', '|'), ('ల', '|'), ('ప', '|'), ('గ', '|'), ('మూ', 'U'), ('ల', '|'), ('మం', 'U'), ('దు', '|'), ('ప', '|'), ('ర', '|'), ('త', 'U'), ('త్త్వ', '|'), ('ము', '|'), ('దె', 'U'), ('ల్ప', '|'), ('గ', '|'), ('పా', 'U'), ('టు', '|'), ('గా', 'U'), ('దు', '|'), ('లో', 'U'), ('బ', '|'), ('లి', '|'), ('మి', '|'), ('ని', '|'), ('నా', 'U'), ('త్మ', '|'), ('గు', 'U'), ('ట్టు', '|'), ('మ', '|'), ('ది', '|'), ('భా', 'U'), ('వ', '|'), ('న', '|'), ('నెం', 'U'), ('చ', '|'), ('గ', '|'), ('బ్ర', 'U'), ('హ్మ', '|'), ('క', 'U'), ('ల్ప', '|'), ('మున్', 'U'), ('గ', '|'), ('లు', '|'), ('గు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('జీ', 'U'), ('వు', '|'), ('ల', '|'), ('కు', '|'), ('గా', 'U'), ('వు', '|'), ('న', '|'), ('నా', 'U'), ('త్మ', '|'), ('వి', '|'), ('ధా', 'U'), ('న', '|'), ('దృ', 'U'), ('శ్య', '|'), ('మీ', 'U'), ('స', '|'), ('ల', '|'), ('లి', '|'), ('త', '|'), ('శ', 'U'), ('క్తి', '|'), ('రూ', 'U'), ('పు', '|'), ('ని', '|'), ('ను', '|'), ('స', 'U'), ('న్ను', '|'), ('తి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('చే', 'U'), ('సె', '|'), ('క', 'U'), ('ల్ప', '|'), ('మున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[('పి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('కుం', 'U'), ('డు', '|'), ('మ', '|'), ('రి', '|'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('దన్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('ద', 'U'), ('న్ను', '|'), ('ను', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('చుం', 'U'), ('డు', '|'), ('నా', 'U'), ('త్మ', '|'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('నె', '|'), ('ఱ', '|'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('యై', 'U'), ('స', '|'), ('దా', 'U'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('యో', 'U'), ('గి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('తిన్', 'U'), ('శి', '|'), ('వ', '|'), ('రూ', 'U'), ('పు', '|'), ('డు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('వు', '|'), ('ల', '|')]</t>
+          <t>[('పి', '|'), ('లి', '|'), ('చి', '|'), ('న', '|'), ('బ', 'U'), ('ల్క', '|'), ('కుం', 'U'), ('డు', '|'), ('మ', '|'), ('రి', '|'), ('పి', 'U'), ('ల్చి', '|'), ('న', '|'), ('నే', 'U'), ('మ', '|'), ('న', '|'), ('కూ', 'U'), ('ర', '|'), ('కుం', 'U'), ('డు', '|'), ('దన్', 'U'), ('ద', '|'), ('ల', '|'), ('చి', '|'), ('న', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రే', 'U'), ('మ', '|'), ('ని', '|'), ('న', '|'), ('ద', 'U'), ('న్ను', '|'), ('ను', '|'), ('గా', 'U'), ('ద', '|'), ('ని', '|'), ('న', 'U'), ('వ్వు', '|'), ('చుం', 'U'), ('డు', '|'), ('నా', 'U'), ('త్మ', '|'), ('ల', '|'), ('ద', '|'), ('ల', '|'), ('పో', 'U'), ('యు', '|'), ('చుం', 'U'), ('డు', '|'), ('నె', '|'), ('ఱ', '|'), ('త', 'U'), ('త్వ', '|'), ('ము', '|'), ('ని', 'U'), ('త్య', '|'), ('ము', '|'), ('దా', 'U'), ('న', '|'), ('యై', 'U'), ('స', '|'), ('దా', 'U'), ('తె', '|'), ('లి', '|'), ('సి', '|'), ('న', '|'), ('యో', 'U'), ('గి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('గ', '|'), ('తి', 'U'), ('న్శి', '|'), ('వ', '|'), ('రూ', 'U'), ('పు', '|'), ('డు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('వు', '|'), ('లన్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('తె', '|'), ('ర', '|'), ('ల', '|'), ('పొ', '|'), ('లు', '|'), ('పు', '|'), ('న', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లం', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('వి', '|'), ('ష', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('ను', '|'), ('గె', 'U'), ('ల్వ', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|')]</t>
+          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లు', '|'), ('తె', '|'), ('ర', '|'), ('ల', '|'), ('పొ', '|'), ('లు', '|'), ('పు', '|'), ('న', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లం', 'U'), ('ట', '|'), ('క', '|'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('వి', '|'), ('ధ', '|'), ('ము', '|'), ('న', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('వి', '|'), ('ష', '|'), ('సం', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్ని', '|'), ('యు', '|'), ('ను', '|'), ('గె', 'U'), ('ల్వ', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[('కా', 'U'), ('ద', '|'), ('ని', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('వా', 'U'), ('దా', 'U'), ('డ', '|'), ('క', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('భే', 'U'), ('దా', 'U'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('డ', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|')]</t>
+          <t>[('కా', 'U'), ('ద', '|'), ('ని', '|'), ('యె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('తో', 'U'), ('డ', '|'), ('ను', '|'), ('వా', 'U'), ('దా', 'U'), ('డ', '|'), ('క', '|'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('వె', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('డు', '|'), ('ను', '|'), ('వ', '|'), ('లె', '|'), ('నే', 'U'), ('భే', 'U'), ('దా', 'U'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('డ', '|'), ('చు', '|'), ('ను', '|'), ('వే', 'U'), ('దాం', 'U'), ('త', '|'), ('ర', '|'), ('హ', 'U'), ('స్య', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('బొ', '|'), ('ర', '|'), ('లి', '|'), ('రో', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('ష', '|'), ('మం', 'U'), ('టి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('వి', '|'), ('ము', '|'), ('ఖ', '|'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('వి', '|'), ('ష', '|'), ('స', '|'), ('మ', '|'), ('మా', 'U'), ('యా', 'U'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లన్', 'U'), ('గూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ్రు', '|'), ('వే', 'U'), ('త్త', '|'), ('లు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
+          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('బొ', '|'), ('ర', '|'), ('లి', '|'), ('రో', 'U'), ('య', '|'), ('క', '|'), ('వి', '|'), ('ష', '|'), ('మం', 'U'), ('టి', '|'), ('న', '|'), ('గ', '|'), ('తి', '|'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('వి', '|'), ('ము', '|'), ('ఖ', '|'), ('త', '|'), ('ధ', '|'), ('ర', '|'), ('లో', 'U'), ('వి', '|'), ('ష', '|'), ('స', '|'), ('మ', '|'), ('మా', 'U'), ('యా', 'U'), ('సు', '|'), ('ఖ', '|'), ('ము', '|'), ('ల', '|'), ('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్గూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ్రు', '|'), ('వే', 'U'), ('త్త', '|'), ('లు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('గ', '|'), ('యు', '|'), ('డు', '|'), ('గు', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('యు', '|'), ('డు', '|'), ('గన్', 'U'), ('గో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('డు', '|'), ('గు', '|'), ('ప', '|'), ('ర', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('లన్', 'U'), ('ద', '|'), ('గు', '|'), ('లు', '|'), ('డు', '|'), ('గు', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('ద్రి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('ము', 'U'), ('క్తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
+          <t>[('ప', '|'), ('గ', '|'), ('యు', '|'), ('డు', '|'), ('గు', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('బ', '|'), ('గ', '|'), ('యు', '|'), ('డు', '|'), ('గ', 'U'), ('న్గో', 'U'), ('ర్కు', '|'), ('లు', '|'), ('డు', '|'), ('గు', '|'), ('ప', '|'), ('ర', '|'), ('జ', 'U'), ('న్మ', '|'), ('ము', '|'), ('లన్', 'U'), ('ద', '|'), ('గు', '|'), ('లు', '|'), ('డు', '|'), ('గు', '|'), ('భే', 'U'), ('ద', '|'), ('ము', '|'), ('డి', '|'), ('గి', '|'), ('న', '|'), ('ద్రి', '|'), ('గు', '|'), ('ణ', '|'), ('ము', '|'), ('లు', '|'), ('డు', '|'), ('గం', 'U'), ('గ', '|'), ('ము', 'U'), ('క్తి', 'U'), ('స్థి', '|'), ('ర', '|'), ('మ', '|'), ('గు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('త', '|'), ('ర', '|'), ('మే', 'U'), ('మి', '|'), ('యు', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('యం', 'U'), ('దు', '|'), ('గన్', 'U'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('మూ', 'U'), ('సి', '|'), ('మూ', 'U'), ('య', '|'), ('క', '|'), ('య', '|'), ('రే', 'U'), ('యి', '|'), ('బ', '|'), ('గ', 'U'), ('ళ్ళొ', '|'), ('క', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('య', '|'), ('మ', '|'), ('ధ', 'U'), ('ర్ము', '|'), ('ని', '|'), ('పా', 'U'), ('లి', '|'), ('కి', '|'), ('నొం', 'U'), ('ద', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('కు', '|'), ('జె', 'U'), ('ల్లు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('వి', '|'), ('ధా', 'U'), ('న', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|')]</t>
+          <t>[('ఎ', 'U'), ('ప్పు', '|'), ('డు', '|'), ('చూ', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('త', '|'), ('ర', '|'), ('మే', 'U'), ('మి', '|'), ('యు', '|'), ('జూ', 'U'), ('డ', '|'), ('క', '|'), ('ము', 'U'), ('క్తి', '|'), ('యం', 'U'), ('దు', '|'), ('గన్', 'U'), ('ఱె', 'U'), ('ప్ప', '|'), ('ల', '|'), ('మూ', 'U'), ('సి', '|'), ('మూ', 'U'), ('య', '|'), ('క', '|'), ('య', '|'), ('రే', 'U'), ('యి', '|'), ('బ', '|'), ('గ', 'U'), ('ళ్ళొ', '|'), ('క', '|'), ('రీ', 'U'), ('తి', '|'), ('నుం', 'U'), ('డ', '|'), ('గా', 'U'), ('ద', 'U'), ('ప్పు', '|'), ('ల', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('యు', '|'), ('య', '|'), ('మ', '|'), ('ధ', 'U'), ('ర్ము', '|'), ('ని', '|'), ('పా', 'U'), ('లి', '|'), ('కి', '|'), ('నొం', 'U'), ('ద', '|'), ('నే', 'U'), ('ర్చు', '|'), ('నే', 'U'), ('చె', 'U'), ('ప్ప', '|'), ('గ', '|'), ('నే', 'U'), ('మి', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('కు', '|'), ('జె', 'U'), ('ల్లు', '|'), ('ను', '|'), ('ము', 'U'), ('క్తి', '|'), ('వి', '|'), ('ధా', 'U'), ('న', '|'), ('మం', 'U'), ('త', '|'), ('యున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('నొ', '|'), ('ర', '|'), ('య', '|'), ('డు', '|'), ('వి', '|'), ('ష', '|'), ('యేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ప', '|'), ('ర', '|'), ('ద', '|'), ('ళం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('ఱి', '|'), ('దా', 'U'), ('వి', '|'), ('ష', '|'), ('మా', 'U'), ('ది', '|'), ('ష', 'U'), ('ట్క', '|'), ('మ', '|'), ('ను', '|'), ('దు', 'U'), ('ర్వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|')]</t>
+          <t>[('వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('లొ', '|'), ('ర', '|'), ('సి', '|'), ('న', '|'), ('నొ', '|'), ('ర', '|'), ('య', '|'), ('డు', '|'), ('వి', '|'), ('ష', '|'), ('యేం', 'U'), ('ద్రి', '|'), ('య', '|'), ('ప', '|'), ('ర', '|'), ('ద', '|'), ('ళం', 'U'), ('బు', '|'), ('సే', 'U'), ('య', '|'), ('గ', '|'), ('మ', '|'), ('ఱి', '|'), ('దా', 'U'), ('వి', '|'), ('ష', '|'), ('మా', 'U'), ('ది', '|'), ('ష', 'U'), ('ట్క', '|'), ('మ', '|'), ('ను', '|'), ('దు', 'U'), ('ర్వి', '|'), ('ష', '|'), ('య', '|'), ('ము', '|'), ('ల', '|'), ('ను', '|'), ('బొం', 'U'), ('ద', '|'), ('కుం', 'U'), ('డ', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -16345,7 +16345,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>[('త', 'U'), ('న్ను', '|'), ('దా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('డు', '|'), ('తా', 'U'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('ర్పు', '|'), ('ప్రా', 'U'), ('లు', '|'), ('మా', 'U'), ('లి', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('ప', '|'), ('శు', '|'), ('వు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('కా', 'U'), ('సు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కై', 'U'), ('న', '|'), ('క', 'U'), ('ర్మ', '|'), ('ముల్', 'U'), ('గ', 'U'), ('ట్టు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('త', 'U'), ('న్ను', '|'), ('దా', 'U'), ('నె', '|'), ('ఱు', '|'), ('గ', '|'), ('డు', '|'), ('తా', 'U'), ('నె', 'U'), ('వ్వ', '|'), ('రి', '|'), ('కి', '|'), ('నే', 'U'), ('ర్పు', '|'), ('ప్రా', 'U'), ('లు', '|'), ('మా', 'U'), ('లి', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('ప', '|'), ('శు', '|'), ('వు', '|'), ('కొ', '|'), ('డు', '|'), ('కు', '|'), ('కా', 'U'), ('సు', '|'), ('ల', '|'), ('కొ', '|'), ('ఱ', '|'), ('కై', 'U'), ('న', '|'), ('క', 'U'), ('ర్మ', '|'), ('ము', 'U'), ('ల్గ', 'U'), ('ట్టు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>[('మొం', 'U'), ('డి', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('ముం', 'U'), ('జే', 'U'), ('తి', '|'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('లు', '|'), ('తొ', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('క', 'U'), ('ఱ్ఱ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('గ', 'U'), ('డ్డ', '|'), ('ముల్', 'U'), ('మీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('మొం', 'U'), ('డి', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('ముం', 'U'), ('జే', 'U'), ('తి', '|'), ('క', '|'), ('డి', '|'), ('యా', 'U'), ('లు', '|'), ('తొ', 'U'), ('ఱ్ఱి', '|'), ('వా', 'U'), ('ని', '|'), ('కే', 'U'), ('ల', '|'), ('క', 'U'), ('ఱ్ఱ', '|'), ('పం', 'U'), ('డ్లు', '|'), ('గా', 'U'), ('డి', '|'), ('ద', '|'), ('ల', '|'), ('కు', '|'), ('నే', 'U'), ('ల', '|'), ('గ', 'U'), ('డ్డ', '|'), ('ము', 'U'), ('ల్మీ', 'U'), ('స', '|'), ('ముల్', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('డ', '|'), ('లు', '|'), ('బెం', 'U'), ('చు', '|'), ('లం', 'U'), ('జ', '|'), ('యు', 'U'), ('బ్బ', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('వి', '|'), ('టు', '|'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('పం', 'U'), ('ది', '|'), ('కొ', 'U'), ('క్కు', '|'), ('మీ', 'U'), ('ద', '|'), ('బం', 'U'), ('డి', '|'), ('కల్', 'U'), ('ప', 'U'), ('డ్డ', 'U'), ('ట్లు', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('ఒ', '|'), ('డ', '|'), ('లు', '|'), ('బెం', 'U'), ('చు', '|'), ('లం', 'U'), ('జ', '|'), ('యు', 'U'), ('బ్బ', '|'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('నై', 'U'), ('న', '|'), ('వే', 'U'), ('గ', '|'), ('వి', '|'), ('టు', '|'), ('ని', '|'), ('మీ', 'U'), ('ద', '|'), ('వి', '|'), ('ఱు', '|'), ('గ', '|'), ('బ', '|'), ('డు', '|'), ('ను', '|'), ('పం', 'U'), ('ది', '|'), ('కొ', 'U'), ('క్కు', '|'), ('మీ', 'U'), ('ద', '|'), ('బం', 'U'), ('డి', '|'), ('క', 'U'), ('ల్ప', 'U'), ('డ్డ', 'U'), ('ట్లు', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -21241,7 +21241,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('వా', 'U'), ('రి', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('మి', '|'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('యె', '|'), ('డన్', 'U'), ('కొ', '|'), ('స', '|'), ('రు', '|'), ('చుం', 'U'), ('ట', '|'), ('యీ', 'U'), ('లే', 'U'), ('న', '|'), ('న', '|'), ('గా', 'U'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('ప', '|'), ('డి', '|'), ('యా', 'U'), ('స', '|'), ('చే', 'U'), ('దా', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('ట', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వృ', 'U'), ('త్తు', '|'), ('ల', '|'), ('గు', '|'), ('రా', 'U'), ('వే', 'U'), ('మా', 'U')]</t>
+          <t>[('అ', '|'), ('డు', '|'), ('గ', '|'), ('ద', '|'), ('గు', '|'), ('వా', 'U'), ('రి', '|'), ('న', '|'), ('డు', '|'), ('గ', '|'), ('మి', '|'), ('ని', '|'), ('డి', '|'), ('న', '|'), ('యె', '|'), ('డ', 'U'), ('న్కొ', '|'), ('స', '|'), ('రు', '|'), ('చుం', 'U'), ('ట', '|'), ('యీ', 'U'), ('లే', 'U'), ('న', '|'), ('న', '|'), ('గా', 'U'), ('గ', '|'), ('డు', '|'), ('సు', '|'), ('ప', '|'), ('డి', '|'), ('యా', 'U'), ('స', '|'), ('చే', 'U'), ('దా', 'U'), ('న', '|'), ('డు', '|'), ('గు', '|'), ('ట', '|'), ('దు', 'U'), ('ర్మా', 'U'), ('ర్గ', '|'), ('వృ', 'U'), ('త్తు', '|'), ('ల', '|'), ('గు', '|'), ('రా', 'U'), ('వే', 'U'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -23553,7 +23553,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>[('క', 'U'), ('ప్ప', '|'), ('యు', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('బో', 'U'), ('ర', '|'), ('గ', '|'), ('క', 'U'), ('ప్ప', '|'), ('ను', '|'), ('నా', 'U'), ('పా', 'U'), ('ము', '|'), ('మ్రిం', 'U'), ('గె', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('తో', 'U'), ('క', 'U'), ('ప్ప', '|'), ('ను', '|'), ('చె', '|'), ('డ', '|'), ('లం', 'U'), ('ది', '|'), ('గి', '|'), ('చె', '|'), ('డి', '|'), ('వి', 'U'), ('ప్ప', '|'), ('ను', '|'), ('నా', 'U'), ('చొ', 'U'), ('ప్పు', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చు', '|')]</t>
+          <t>[('క', 'U'), ('ప్ప', '|'), ('యు', '|'), ('పా', 'U'), ('ము', '|'), ('ను', '|'), ('బో', 'U'), ('ర', '|'), ('గ', '|'), ('క', 'U'), ('ప్ప', '|'), ('ను', '|'), ('నా', 'U'), ('పా', 'U'), ('ము', '|'), ('మ్రిం', 'U'), ('గె', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డు', '|'), ('క', '|'), ('తో', 'U'), ('క', 'U'), ('ప్ప', '|'), ('ను', '|'), ('చె', '|'), ('డ', '|'), ('లం', 'U'), ('ది', '|'), ('గి', '|'), ('చె', '|'), ('డి', '|'), ('వి', 'U'), ('ప్ప', '|'), ('ను', '|'), ('నా', 'U'), ('చొ', 'U'), ('ప్పు', '|'), ('దె', '|'), ('లి', '|'), ('య', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('నే', 'U'), ('ర్చున్', 'U')]</t>
         </is>
       </c>
     </row>
@@ -23893,7 +23893,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>[('కు', '|'), ('రు', '|'), ('పు', '|'), ('లు', '|'), ('గం', 'U'), ('డ', '|'), ('ముల్', 'U'), ('క', '|'), ('ఠి', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('పు', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ను', '|'), ('జీ', 'U'), ('వ', '|'), ('రా', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('నా', 'U'), ('యు', '|'), ('వు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('త', '|'), ('వే', 'U'), ('మ', '|'), ('రు', '|'), ('వ', '|'), ('గ', '|'), ('వం', 'U'), ('గ', '|'), ('నే', 'U'), ('ల', 'U'), ('క్షు', '|'), ('ధ', '|'), ('మా', 'U'), ('య', '|'), ('ను', '|'), ('లే', 'U'), ('ద', '|'), ('న', '|'), ('నే', 'U'), ('ల', '|'), ('మూ', 'U'), ('ఢు', '|'), ('డై', 'U'), ('య', '|'), ('ర', '|'), ('య', '|'), ('ద', '|'), ('యా', 'U'), ('ళు', '|'), ('డై', 'U'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్ము', '|'), ('డె', '|'), ('యొ', 'U'), ('క్క', '|'), ('డు', '|'), ('ది', 'U'), ('క్కు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
+          <t>[('కు', '|'), ('రు', '|'), ('పు', '|'), ('లు', '|'), ('గం', 'U'), ('డ', '|'), ('ము', 'U'), ('ల్క', '|'), ('ఠి', '|'), ('న', '|'), ('క', 'U'), ('ష్ట', '|'), ('పు', '|'), ('రో', 'U'), ('గ', '|'), ('ము', '|'), ('లె', 'U'), ('న్ని', '|'), ('వ', 'U'), ('చ్చి', '|'), ('నన్', 'U'), ('గ', '|'), ('రి', '|'), ('మ', '|'), ('ను', '|'), ('జీ', 'U'), ('వ', '|'), ('రా', 'U'), ('సు', '|'), ('ల', '|'), ('కు', '|'), ('గ', 'U'), ('ట్టి', '|'), ('గ', '|'), ('నా', 'U'), ('యు', '|'), ('వు', '|'), ('గ', 'U'), ('ల్గి', '|'), ('నం', 'U'), ('త', '|'), ('వే', 'U'), ('మ', '|'), ('రు', '|'), ('వ', '|'), ('గ', '|'), ('వం', 'U'), ('గ', '|'), ('నే', 'U'), ('ల', 'U'), ('క్షు', '|'), ('ధ', '|'), ('మా', 'U'), ('య', '|'), ('ను', '|'), ('లే', 'U'), ('ద', '|'), ('న', '|'), ('నే', 'U'), ('ల', '|'), ('మూ', 'U'), ('ఢు', '|'), ('డై', 'U'), ('య', '|'), ('ర', '|'), ('య', '|'), ('ద', '|'), ('యా', 'U'), ('ళు', '|'), ('డై', 'U'), ('న', '|'), ('ప', '|'), ('ర', '|'), ('మా', 'U'), ('త్ము', '|'), ('డె', '|'), ('యొ', 'U'), ('క్క', '|'), ('డు', '|'), ('ది', 'U'), ('క్కు', '|'), ('వే', 'U'), ('మా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -25117,7 +25117,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>[('కూ', 'U'), ('టి', '|'), ('కి', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('లె', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('యు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('వు', '|'), ('లన్', 'U'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('కిన్', 'U'), ('మ', '|'), ('ఱి', '|'), ('యు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తిన్', 'U'), ('ధా', 'U'), ('టి', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ను', '|'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('లో', 'U'), ('శి', '|'), ('వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధా', 'U'), ('రి', '|'), ('యై', 'U'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ను', 'U'), ('న్న', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వే', 'U'), ('మ', '|'), ('నా', 'U')]</t>
+          <t>[('కూ', 'U'), ('టి', '|'), ('కి', '|'), ('లే', 'U'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('వ', '|'), ('లె', '|'), ('గో', 'U'), ('ప', '|'), ('ము', '|'), ('లే', 'U'), ('క', '|'), ('యు', '|'), ('నె', 'U'), ('ల్ల', '|'), ('తా', 'U'), ('వు', '|'), ('లన్', 'U'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('మా', 'U'), ('టి', '|'), ('కి', 'U'), ('న్మ', '|'), ('ఱి', '|'), ('యు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('మా', 'U'), ('ట', '|'), ('కు', '|'), ('ప', 'U'), ('ద్య', '|'), ('ప', 'U'), ('ద్ధ', '|'), ('తిన్', 'U'), ('ధా', 'U'), ('టి', '|'), ('నె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('జె', 'U'), ('ప్పు', '|'), ('చు', '|'), ('ను', '|'), ('ధా', 'U'), ('రు', '|'), ('ణి', '|'), ('లో', 'U'), ('శి', '|'), ('వ', '|'), ('రూ', 'U'), ('ప', '|'), ('ధా', 'U'), ('రి', '|'), ('యై', 'U'), ('మా', 'U'), ('టి', '|'), ('కి', '|'), ('ను', 'U'), ('న్న', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('స', '|'), ('మా', 'U'), ('న', '|'), ('ము', '|'), ('నె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('గ', 'U'), ('ల్గు', '|'), ('వే', 'U'), ('మ', '|'), ('నా', 'U')]</t>
         </is>
       </c>
     </row>
@@ -27531,7 +27531,7 @@
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('తి', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('ఘా', 'U'), ('త', '|'), ('కు', '|'), ('లు', '|'), ('కా', 'U'), ('ని', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('వ్రా', 'U'), ('ల', '|'), ('కం', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ద్య', '|'), ('ముల్', 'U'), ('వే', 'U'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('చే', 'U'), ('త', '|'), ('నం', 'U'), ('దు', '|'), ('గ', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('దా', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('నీ', 'U'), ('తి', '|'), ('వై', 'U'), ('రా', 'U'), ('గ్య', '|'), ('భ', 'U'), ('క్తి', '|'), ('ని', '|'), ('నీ', 'U'), ('చు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('ఘా', 'U'), ('త', '|'), ('కు', '|'), ('లు', '|'), ('కా', 'U'), ('ని', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('సం', 'U'), ('క', '|'), ('లి', '|'), ('తు', '|'), ('ల', '|'), ('కు', '|'), ('ను', '|'), ('వ్రా', 'U'), ('ల', '|'), ('కం', 'U'), ('ద', '|'), ('ని', '|'), ('ప', 'U'), ('ద్య', '|'), ('ము', 'U'), ('ల్వే', 'U'), ('ల', '|'), ('సం', 'U'), ('ఖ్య', '|'), ('చే', 'U'), ('త', '|'), ('నం', 'U'), ('దు', '|'), ('గ', '|'), ('భు', '|'), ('వి', '|'), ('ని', '|'), ('దా', 'U'), ('జె', 'U'), ('ప్పె', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>[('వె', 'U'), ('ఱ్ఱి', '|'), ('న', 'U'), ('క్క', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('వే', 'U'), ('ద', '|'), ('ముల్', 'U'), ('చ', '|'), ('ది', '|'), ('వె', '|'), ('ద', '|'), ('రా', 'U'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('ర', 'U'), ('య్య', '|'), ('వా', 'U'), ('రు', '|'), ('వే', 'U'), ('ద', '|'), ('సా', 'U'), ('ర', '|'), ('మం', 'U'), ('త', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('యె', '|'), ('ఱు', '|'), ('గు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('వె', 'U'), ('ఱ్ఱి', '|'), ('న', 'U'), ('క్క', '|'), ('ల', '|'), ('వ', '|'), ('లె', '|'), ('వే', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్చ', '|'), ('ది', '|'), ('వె', '|'), ('ద', '|'), ('రా', 'U'), ('శ', '|'), ('యం', 'U'), ('బు', '|'), ('లె', '|'), ('ఱు', '|'), ('గ', '|'), ('ర', 'U'), ('య్య', '|'), ('వా', 'U'), ('రు', '|'), ('వే', 'U'), ('ద', '|'), ('సా', 'U'), ('ర', '|'), ('మం', 'U'), ('త', '|'), ('వే', 'U'), ('మ', '|'), ('న', '|'), ('యె', '|'), ('ఱు', '|'), ('గు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -32597,7 +32597,7 @@
       </c>
       <c r="E949" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('వుల్', 'U'), ('ప', '|'), ('గ', '|'), ('వా', 'U'), ('రు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('త', 'U'), ('ప్పు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బం', 'U'), ('ధు', '|'), ('వు', 'U'), ('ల్ప', '|'), ('గ', '|'), ('వా', 'U'), ('రు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('ర', '|'), ('ము', '|'), ('త', 'U'), ('ప్పు', '|'), ('ప', '|'), ('ర', '|'), ('గ', '|'), ('లే', 'U'), ('మి', '|'), ('చే', 'U'), ('త', '|'), ('బ', '|'), ('ర', '|'), ('ప', '|'), ('తి', '|'), ('ద', 'U'), ('ప్పు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -32903,7 +32903,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>[('ప్రా', 'U'), ('త', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('న', 'U'), ('ర్త', '|'), ('నల్', 'U'), ('ప', '|'), ('ద', '|'), ('ట', '|'), ('గ', '|'), ('లి', '|'), ('పి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('న', 'U'), ('ర్త', '|'), ('న', '|'), ('జే', 'U'), ('తు', '|'), ('రు', '|'), ('కో', 'U'), ('డె', '|'), ('కాం', 'U'), ('డ్రు', '|'), ('క', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('వి', '|'), ('డ', '|'), ('నా', 'U'), ('డి', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('య', 'U'), ('న్య', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('ప్రా', 'U'), ('త', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('న', 'U'), ('ర్త', '|'), ('న', 'U'), ('ల్ప', '|'), ('ద', '|'), ('ట', '|'), ('గ', '|'), ('లి', '|'), ('పి', '|'), ('క్రొ', 'U'), ('త్త', '|'), ('న', 'U'), ('ర్త', '|'), ('న', '|'), ('జే', 'U'), ('తు', '|'), ('రు', '|'), ('కో', 'U'), ('డె', '|'), ('కాం', 'U'), ('డ్రు', '|'), ('క', 'U'), ('న్న', '|'), ('త', 'U'), ('ల్లి', '|'), ('ని', '|'), ('వి', '|'), ('డ', '|'), ('నా', 'U'), ('డి', '|'), ('క', 'U'), ('ష్ట', '|'), ('పె', 'U'), ('ట్టి', '|'), ('య', 'U'), ('న్య', '|'), ('కాం', 'U'), ('త', '|'), ('ల', '|'), ('బో', 'U'), ('షిం', 'U'), ('చు', '|'), ('న', 'U'), ('ట్లు', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -33651,7 +33651,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>[('పా', 'U'), ('ప', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ప', '|'), ('సి', '|'), ('మి', '|'), ('గా', 'U'), ('పె', '|'), ('ఱి', '|'), ('గి', '|'), ('నా', 'U'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('యో', 'U'), ('గి', '|'), ('యె', '|'), ('ఱు', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('లో', 'U'), ('ని', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('గ', '|'), ('ని', '|'), ('లో', 'U'), ('హ', '|'), ('ముల్', 'U'), ('గూ', 'U'), ('ర్ప', '|'), ('రో', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('పా', 'U'), ('ప', '|'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('లు', '|'), ('ను', '|'), ('ప', '|'), ('సి', '|'), ('మి', '|'), ('గా', 'U'), ('పె', '|'), ('ఱి', '|'), ('గి', '|'), ('నా', 'U'), ('ధ', '|'), ('ర', '|'), ('ను', '|'), ('న', '|'), ('ర', '|'), ('య', '|'), ('యో', 'U'), ('గి', '|'), ('యె', '|'), ('ఱు', '|'), ('గు', '|'), ('గా', 'U'), ('క', '|'), ('లో', 'U'), ('ని', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('గ', '|'), ('ని', '|'), ('లో', 'U'), ('హ', '|'), ('ము', 'U'), ('ల్గూ', 'U'), ('ర్ప', '|'), ('రో', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -35623,7 +35623,7 @@
       </c>
       <c r="E1038" t="inlineStr">
         <is>
-          <t>[('మే', 'U'), ('క', '|'), ('జం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్టి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('మం', 'U'), ('ద', '|'), ('లో', 'U'), ('బ్ర', '|'), ('మ', '|'), ('సి', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('దై', 'U'), ('వ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ముల్', 'U'), ('ద', '|'), ('ల', '|'), ('చు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('మే', 'U'), ('క', '|'), ('జం', 'U'), ('క', '|'), ('బె', 'U'), ('ట్టి', '|'), ('మె', '|'), ('ల', '|'), ('గు', '|'), ('చు', '|'), ('మం', 'U'), ('ద', '|'), ('లో', 'U'), ('బ్ర', '|'), ('మ', '|'), ('సి', '|'), ('తి', '|'), ('రు', '|'), ('గు', '|'), ('గొ', 'U'), ('ల్ల', '|'), ('ప', '|'), ('గి', '|'), ('ది', '|'), ('గా', 'U'), ('క', '|'), ('దై', 'U'), ('వ', '|'), ('మె', '|'), ('ఱు', '|'), ('గ', '|'), ('క', '|'), ('ప', '|'), ('ర', '|'), ('దై', 'U'), ('వ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('ల', '|'), ('చు', '|'), ('ను', '|'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
@@ -39193,7 +39193,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('త', '|'), ('ము', '|'), ('దా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('రూ', 'U'), ('పు', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('యో', 'U'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('యో', 'U'), ('గ', '|'), ('ముల్', 'U'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
+          <t>[('మ', '|'), ('త', '|'), ('ము', '|'), ('దా', 'U'), ('రి', '|'), ('య', '|'), ('గు', '|'), ('చు', '|'), ('మ', '|'), ('ధు', '|'), ('రా', 'U'), ('ధ', '|'), ('ర', '|'), ('ము', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('గు', '|'), ('వ', '|'), ('రూ', 'U'), ('పు', '|'), ('జూ', 'U'), ('చి', '|'), ('మ', '|'), ('న', '|'), ('సు', '|'), ('మ', '|'), ('ఱ', '|'), ('చు', '|'), ('యో', 'U'), ('ని', '|'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('యో', 'U'), ('గ', '|'), ('ము', 'U'), ('ల్మ', '|'), ('ఱ', '|'), ('చు', '|'), ('రా', 'U'), ('వి', 'U'), ('శ్వ', '|'), ('దా', 'U'), ('భి', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('న', '|'), ('ర', '|'), ('వే', 'U'), ('మ', '|')]</t>
         </is>
       </c>
     </row>
